--- a/Excel-XLSX/UN-CZE.xlsx
+++ b/Excel-XLSX/UN-CZE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1583">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>r32rLM</t>
+    <t>vTOm6I</t>
   </si>
   <si>
     <t>1991</t>
@@ -4734,12 +4734,6 @@
     <t>1312</t>
   </si>
   <si>
-    <t>359495</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
     <t>1313</t>
   </si>
   <si>
@@ -4750,6 +4744,27 @@
   </si>
   <si>
     <t>1316</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>388388</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>1319</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1321</t>
   </si>
 </sst>
 </file>
@@ -5134,7 +5149,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1317"/>
+  <dimension ref="A1:V1322"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -91543,10 +91558,10 @@
         <v>31</v>
       </c>
       <c r="N1271" s="2" t="s">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="O1271" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P1271" s="2" t="s">
         <v>33</v>
@@ -91611,10 +91626,10 @@
         <v>31</v>
       </c>
       <c r="N1272" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O1272" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P1272" s="2" t="s">
         <v>33</v>
@@ -91747,7 +91762,7 @@
         <v>31</v>
       </c>
       <c r="N1274" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O1274" s="2" t="s">
         <v>49</v>
@@ -91818,7 +91833,7 @@
         <v>163</v>
       </c>
       <c r="O1275" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="P1275" s="2" t="s">
         <v>33</v>
@@ -91883,10 +91898,10 @@
         <v>31</v>
       </c>
       <c r="N1276" s="2" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="O1276" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="P1276" s="2" t="s">
         <v>33</v>
@@ -91995,16 +92010,16 @@
         <v>1529</v>
       </c>
       <c r="F1278" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G1278" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H1278" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I1278" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J1278" s="2" t="s">
         <v>29</v>
@@ -92019,10 +92034,10 @@
         <v>31</v>
       </c>
       <c r="N1278" s="2" t="s">
-        <v>342</v>
+        <v>33</v>
       </c>
       <c r="O1278" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="P1278" s="2" t="s">
         <v>33</v>
@@ -92063,16 +92078,16 @@
         <v>1529</v>
       </c>
       <c r="F1279" s="2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G1279" s="1" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="H1279" s="1" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="I1279" s="1" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="J1279" s="2" t="s">
         <v>29</v>
@@ -92087,10 +92102,10 @@
         <v>31</v>
       </c>
       <c r="N1279" s="2" t="s">
-        <v>49</v>
+        <v>454</v>
       </c>
       <c r="O1279" s="2" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="P1279" s="2" t="s">
         <v>33</v>
@@ -92131,16 +92146,16 @@
         <v>1529</v>
       </c>
       <c r="F1280" s="2" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="G1280" s="1" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="H1280" s="1" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="I1280" s="1" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="J1280" s="2" t="s">
         <v>29</v>
@@ -92155,10 +92170,10 @@
         <v>31</v>
       </c>
       <c r="N1280" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="O1280" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P1280" s="2" t="s">
         <v>33</v>
@@ -92199,16 +92214,16 @@
         <v>1529</v>
       </c>
       <c r="F1281" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="G1281" s="1" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="H1281" s="1" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="I1281" s="1" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="J1281" s="2" t="s">
         <v>29</v>
@@ -92223,10 +92238,10 @@
         <v>31</v>
       </c>
       <c r="N1281" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1281" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O1281" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P1281" s="2" t="s">
         <v>33</v>
@@ -92267,16 +92282,16 @@
         <v>1529</v>
       </c>
       <c r="F1282" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="G1282" s="1" t="s">
-        <v>134</v>
+        <v>575</v>
       </c>
       <c r="H1282" s="1" t="s">
-        <v>135</v>
+        <v>576</v>
       </c>
       <c r="I1282" s="1" t="s">
-        <v>135</v>
+        <v>576</v>
       </c>
       <c r="J1282" s="2" t="s">
         <v>29</v>
@@ -92291,7 +92306,7 @@
         <v>31</v>
       </c>
       <c r="N1282" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="O1282" s="2" t="s">
         <v>49</v>
@@ -92335,16 +92350,16 @@
         <v>1529</v>
       </c>
       <c r="F1283" s="2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="G1283" s="1" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="H1283" s="1" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="I1283" s="1" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="J1283" s="2" t="s">
         <v>29</v>
@@ -92359,10 +92374,10 @@
         <v>31</v>
       </c>
       <c r="N1283" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O1283" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P1283" s="2" t="s">
         <v>33</v>
@@ -92403,16 +92418,16 @@
         <v>1529</v>
       </c>
       <c r="F1284" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G1284" s="1" t="s">
-        <v>1480</v>
+        <v>1371</v>
       </c>
       <c r="H1284" s="1" t="s">
-        <v>1481</v>
+        <v>1372</v>
       </c>
       <c r="I1284" s="1" t="s">
-        <v>1481</v>
+        <v>1372</v>
       </c>
       <c r="J1284" s="2" t="s">
         <v>29</v>
@@ -92430,7 +92445,7 @@
         <v>49</v>
       </c>
       <c r="O1284" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P1284" s="2" t="s">
         <v>33</v>
@@ -92471,16 +92486,16 @@
         <v>1529</v>
       </c>
       <c r="F1285" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G1285" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H1285" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I1285" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J1285" s="2" t="s">
         <v>29</v>
@@ -92495,10 +92510,10 @@
         <v>31</v>
       </c>
       <c r="N1285" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O1285" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P1285" s="2" t="s">
         <v>33</v>
@@ -92539,16 +92554,16 @@
         <v>1529</v>
       </c>
       <c r="F1286" s="2" t="s">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="G1286" s="1" t="s">
-        <v>249</v>
+        <v>883</v>
       </c>
       <c r="H1286" s="1" t="s">
-        <v>250</v>
+        <v>884</v>
       </c>
       <c r="I1286" s="1" t="s">
-        <v>250</v>
+        <v>885</v>
       </c>
       <c r="J1286" s="2" t="s">
         <v>29</v>
@@ -92563,10 +92578,10 @@
         <v>31</v>
       </c>
       <c r="N1286" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O1286" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="P1286" s="2" t="s">
         <v>33</v>
@@ -92607,16 +92622,16 @@
         <v>1529</v>
       </c>
       <c r="F1287" s="2" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="G1287" s="1" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="H1287" s="1" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="I1287" s="1" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="J1287" s="2" t="s">
         <v>29</v>
@@ -92634,7 +92649,7 @@
         <v>49</v>
       </c>
       <c r="O1287" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="P1287" s="2" t="s">
         <v>33</v>
@@ -92675,16 +92690,16 @@
         <v>1529</v>
       </c>
       <c r="F1288" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="G1288" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H1288" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I1288" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="J1288" s="2" t="s">
         <v>29</v>
@@ -92699,10 +92714,10 @@
         <v>31</v>
       </c>
       <c r="N1288" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="O1288" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P1288" s="2" t="s">
         <v>33</v>
@@ -92743,16 +92758,16 @@
         <v>1529</v>
       </c>
       <c r="F1289" s="2" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="G1289" s="1" t="s">
-        <v>1488</v>
+        <v>243</v>
       </c>
       <c r="H1289" s="1" t="s">
-        <v>1489</v>
+        <v>244</v>
       </c>
       <c r="I1289" s="1" t="s">
-        <v>1489</v>
+        <v>244</v>
       </c>
       <c r="J1289" s="2" t="s">
         <v>29</v>
@@ -92811,16 +92826,16 @@
         <v>1529</v>
       </c>
       <c r="F1290" s="2" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="G1290" s="1" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="H1290" s="1" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="I1290" s="1" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="J1290" s="2" t="s">
         <v>29</v>
@@ -92835,10 +92850,10 @@
         <v>31</v>
       </c>
       <c r="N1290" s="2" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="O1290" s="2" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="P1290" s="2" t="s">
         <v>33</v>
@@ -92879,16 +92894,16 @@
         <v>1529</v>
       </c>
       <c r="F1291" s="2" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="G1291" s="1" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="H1291" s="1" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="I1291" s="1" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="J1291" s="2" t="s">
         <v>29</v>
@@ -92903,7 +92918,7 @@
         <v>31</v>
       </c>
       <c r="N1291" s="2" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="O1291" s="2" t="s">
         <v>33</v>
@@ -92947,16 +92962,16 @@
         <v>1529</v>
       </c>
       <c r="F1292" s="2" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="G1292" s="1" t="s">
-        <v>267</v>
+        <v>1488</v>
       </c>
       <c r="H1292" s="1" t="s">
-        <v>268</v>
+        <v>1489</v>
       </c>
       <c r="I1292" s="1" t="s">
-        <v>268</v>
+        <v>1489</v>
       </c>
       <c r="J1292" s="2" t="s">
         <v>29</v>
@@ -93015,16 +93030,16 @@
         <v>1529</v>
       </c>
       <c r="F1293" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="G1293" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="H1293" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="I1293" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="J1293" s="2" t="s">
         <v>29</v>
@@ -93039,10 +93054,10 @@
         <v>31</v>
       </c>
       <c r="N1293" s="2" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="O1293" s="2" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="P1293" s="2" t="s">
         <v>33</v>
@@ -93083,16 +93098,16 @@
         <v>1529</v>
       </c>
       <c r="F1294" s="2" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="G1294" s="1" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="H1294" s="1" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="I1294" s="1" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="J1294" s="2" t="s">
         <v>29</v>
@@ -93107,10 +93122,10 @@
         <v>31</v>
       </c>
       <c r="N1294" s="2" t="s">
-        <v>357</v>
+        <v>129</v>
       </c>
       <c r="O1294" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="P1294" s="2" t="s">
         <v>33</v>
@@ -93151,16 +93166,16 @@
         <v>1529</v>
       </c>
       <c r="F1295" s="2" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="G1295" s="1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="H1295" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="I1295" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="J1295" s="2" t="s">
         <v>29</v>
@@ -93175,10 +93190,10 @@
         <v>31</v>
       </c>
       <c r="N1295" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="O1295" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="P1295" s="2" t="s">
         <v>33</v>
@@ -93219,16 +93234,16 @@
         <v>1529</v>
       </c>
       <c r="F1296" s="2" t="s">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="G1296" s="1" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="H1296" s="1" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="I1296" s="1" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="J1296" s="2" t="s">
         <v>29</v>
@@ -93246,7 +93261,7 @@
         <v>49</v>
       </c>
       <c r="O1296" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P1296" s="2" t="s">
         <v>33</v>
@@ -93287,16 +93302,16 @@
         <v>1529</v>
       </c>
       <c r="F1297" s="2" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="G1297" s="1" t="s">
-        <v>646</v>
+        <v>267</v>
       </c>
       <c r="H1297" s="1" t="s">
-        <v>647</v>
+        <v>268</v>
       </c>
       <c r="I1297" s="1" t="s">
-        <v>648</v>
+        <v>268</v>
       </c>
       <c r="J1297" s="2" t="s">
         <v>29</v>
@@ -93311,10 +93326,10 @@
         <v>31</v>
       </c>
       <c r="N1297" s="2" t="s">
-        <v>416</v>
+        <v>56</v>
       </c>
       <c r="O1297" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P1297" s="2" t="s">
         <v>33</v>
@@ -93355,16 +93370,16 @@
         <v>1529</v>
       </c>
       <c r="F1298" s="2" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="G1298" s="1" t="s">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="H1298" s="1" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="I1298" s="1" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="J1298" s="2" t="s">
         <v>29</v>
@@ -93379,10 +93394,10 @@
         <v>31</v>
       </c>
       <c r="N1298" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="O1298" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="P1298" s="2" t="s">
         <v>33</v>
@@ -93423,16 +93438,16 @@
         <v>1529</v>
       </c>
       <c r="F1299" s="2" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="G1299" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H1299" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I1299" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J1299" s="2" t="s">
         <v>29</v>
@@ -93447,10 +93462,10 @@
         <v>31</v>
       </c>
       <c r="N1299" s="2" t="s">
-        <v>48</v>
+        <v>355</v>
       </c>
       <c r="O1299" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="P1299" s="2" t="s">
         <v>33</v>
@@ -93491,16 +93506,16 @@
         <v>1529</v>
       </c>
       <c r="F1300" s="2" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="G1300" s="1" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="H1300" s="1" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="I1300" s="1" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="J1300" s="2" t="s">
         <v>29</v>
@@ -93515,10 +93530,10 @@
         <v>31</v>
       </c>
       <c r="N1300" s="2" t="s">
-        <v>707</v>
+        <v>53</v>
       </c>
       <c r="O1300" s="2" t="s">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="P1300" s="2" t="s">
         <v>33</v>
@@ -93559,16 +93574,16 @@
         <v>1529</v>
       </c>
       <c r="F1301" s="2" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="G1301" s="1" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="H1301" s="1" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="I1301" s="1" t="s">
-        <v>154</v>
+        <v>293</v>
       </c>
       <c r="J1301" s="2" t="s">
         <v>29</v>
@@ -93583,10 +93598,10 @@
         <v>31</v>
       </c>
       <c r="N1301" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O1301" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P1301" s="2" t="s">
         <v>33</v>
@@ -93627,16 +93642,16 @@
         <v>1529</v>
       </c>
       <c r="F1302" s="2" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="G1302" s="1" t="s">
-        <v>38</v>
+        <v>646</v>
       </c>
       <c r="H1302" s="1" t="s">
-        <v>39</v>
+        <v>647</v>
       </c>
       <c r="I1302" s="1" t="s">
-        <v>39</v>
+        <v>648</v>
       </c>
       <c r="J1302" s="2" t="s">
         <v>29</v>
@@ -93651,10 +93666,10 @@
         <v>31</v>
       </c>
       <c r="N1302" s="2" t="s">
-        <v>74</v>
+        <v>426</v>
       </c>
       <c r="O1302" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="P1302" s="2" t="s">
         <v>33</v>
@@ -93695,16 +93710,16 @@
         <v>1529</v>
       </c>
       <c r="F1303" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="G1303" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="H1303" s="1" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I1303" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="J1303" s="2" t="s">
         <v>29</v>
@@ -93719,10 +93734,10 @@
         <v>31</v>
       </c>
       <c r="N1303" s="2" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="O1303" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P1303" s="2" t="s">
         <v>33</v>
@@ -93763,16 +93778,16 @@
         <v>1529</v>
       </c>
       <c r="F1304" s="2" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="G1304" s="1" t="s">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="H1304" s="1" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="I1304" s="1" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="J1304" s="2" t="s">
         <v>29</v>
@@ -93787,10 +93802,10 @@
         <v>31</v>
       </c>
       <c r="N1304" s="2" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="O1304" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="P1304" s="2" t="s">
         <v>33</v>
@@ -93802,10 +93817,10 @@
         <v>33</v>
       </c>
       <c r="S1304" s="2" t="s">
-        <v>826</v>
+        <v>33</v>
       </c>
       <c r="T1304" s="2" t="s">
-        <v>663</v>
+        <v>33</v>
       </c>
       <c r="U1304" s="1" t="s">
         <v>34</v>
@@ -93831,16 +93846,16 @@
         <v>1529</v>
       </c>
       <c r="F1305" s="2" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="G1305" s="1" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="H1305" s="1" t="s">
-        <v>314</v>
+        <v>52</v>
       </c>
       <c r="I1305" s="1" t="s">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="J1305" s="2" t="s">
         <v>29</v>
@@ -93855,10 +93870,10 @@
         <v>31</v>
       </c>
       <c r="N1305" s="2" t="s">
-        <v>54</v>
+        <v>775</v>
       </c>
       <c r="O1305" s="2" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="P1305" s="2" t="s">
         <v>33</v>
@@ -93899,16 +93914,16 @@
         <v>1529</v>
       </c>
       <c r="F1306" s="2" t="s">
-        <v>321</v>
+        <v>152</v>
       </c>
       <c r="G1306" s="1" t="s">
-        <v>322</v>
+        <v>153</v>
       </c>
       <c r="H1306" s="1" t="s">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c r="I1306" s="1" t="s">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c r="J1306" s="2" t="s">
         <v>29</v>
@@ -93923,10 +93938,10 @@
         <v>31</v>
       </c>
       <c r="N1306" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="O1306" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P1306" s="2" t="s">
         <v>33</v>
@@ -93967,16 +93982,16 @@
         <v>1529</v>
       </c>
       <c r="F1307" s="2" t="s">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="G1307" s="1" t="s">
-        <v>1080</v>
+        <v>38</v>
       </c>
       <c r="H1307" s="1" t="s">
-        <v>1081</v>
+        <v>39</v>
       </c>
       <c r="I1307" s="1" t="s">
-        <v>1081</v>
+        <v>39</v>
       </c>
       <c r="J1307" s="2" t="s">
         <v>29</v>
@@ -93991,7 +94006,7 @@
         <v>31</v>
       </c>
       <c r="N1307" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O1307" s="2" t="s">
         <v>33</v>
@@ -94035,16 +94050,16 @@
         <v>1529</v>
       </c>
       <c r="F1308" s="2" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="G1308" s="1" t="s">
-        <v>325</v>
+        <v>109</v>
       </c>
       <c r="H1308" s="1" t="s">
-        <v>326</v>
+        <v>110</v>
       </c>
       <c r="I1308" s="1" t="s">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="J1308" s="2" t="s">
         <v>29</v>
@@ -94059,10 +94074,10 @@
         <v>31</v>
       </c>
       <c r="N1308" s="2" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="O1308" s="2" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="P1308" s="2" t="s">
         <v>33</v>
@@ -94103,16 +94118,16 @@
         <v>1529</v>
       </c>
       <c r="F1309" s="2" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="G1309" s="1" t="s">
-        <v>329</v>
+        <v>62</v>
       </c>
       <c r="H1309" s="1" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="I1309" s="1" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="J1309" s="2" t="s">
         <v>29</v>
@@ -94127,10 +94142,10 @@
         <v>31</v>
       </c>
       <c r="N1309" s="2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="O1309" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="P1309" s="2" t="s">
         <v>33</v>
@@ -94142,10 +94157,10 @@
         <v>33</v>
       </c>
       <c r="S1309" s="2" t="s">
-        <v>33</v>
+        <v>809</v>
       </c>
       <c r="T1309" s="2" t="s">
-        <v>33</v>
+        <v>636</v>
       </c>
       <c r="U1309" s="1" t="s">
         <v>34</v>
@@ -94171,16 +94186,16 @@
         <v>1529</v>
       </c>
       <c r="F1310" s="2" t="s">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="G1310" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="H1310" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="I1310" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="J1310" s="2" t="s">
         <v>29</v>
@@ -94195,10 +94210,10 @@
         <v>31</v>
       </c>
       <c r="N1310" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="O1310" s="2" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="P1310" s="2" t="s">
         <v>33</v>
@@ -94239,16 +94254,16 @@
         <v>1529</v>
       </c>
       <c r="F1311" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G1311" s="1" t="s">
-        <v>919</v>
+        <v>322</v>
       </c>
       <c r="H1311" s="1" t="s">
-        <v>920</v>
+        <v>323</v>
       </c>
       <c r="I1311" s="1" t="s">
-        <v>920</v>
+        <v>323</v>
       </c>
       <c r="J1311" s="2" t="s">
         <v>29</v>
@@ -94263,10 +94278,10 @@
         <v>31</v>
       </c>
       <c r="N1311" s="2" t="s">
-        <v>49</v>
+        <v>501</v>
       </c>
       <c r="O1311" s="2" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="P1311" s="2" t="s">
         <v>33</v>
@@ -94307,16 +94322,16 @@
         <v>1529</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="G1312" s="1" t="s">
-        <v>26</v>
+        <v>1080</v>
       </c>
       <c r="H1312" s="1" t="s">
-        <v>27</v>
+        <v>1081</v>
       </c>
       <c r="I1312" s="1" t="s">
-        <v>28</v>
+        <v>1081</v>
       </c>
       <c r="J1312" s="2" t="s">
         <v>29</v>
@@ -94331,10 +94346,10 @@
         <v>31</v>
       </c>
       <c r="N1312" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="O1312" s="2" t="s">
-        <v>594</v>
+        <v>54</v>
       </c>
       <c r="P1312" s="2" t="s">
         <v>33</v>
@@ -94349,7 +94364,7 @@
         <v>33</v>
       </c>
       <c r="T1312" s="2" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="U1312" s="1" t="s">
         <v>34</v>
@@ -94375,16 +94390,16 @@
         <v>1529</v>
       </c>
       <c r="F1313" s="2" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="G1313" s="1" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="H1313" s="1" t="s">
-        <v>118</v>
+        <v>326</v>
       </c>
       <c r="I1313" s="1" t="s">
-        <v>118</v>
+        <v>326</v>
       </c>
       <c r="J1313" s="2" t="s">
         <v>29</v>
@@ -94399,13 +94414,13 @@
         <v>31</v>
       </c>
       <c r="N1313" s="2" t="s">
-        <v>1572</v>
+        <v>99</v>
       </c>
       <c r="O1313" s="2" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="P1313" s="2" t="s">
-        <v>1573</v>
+        <v>33</v>
       </c>
       <c r="Q1313" s="2" t="s">
         <v>33</v>
@@ -94437,22 +94452,22 @@
         <v>22</v>
       </c>
       <c r="D1314" s="2" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E1314" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F1314" s="2" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
       <c r="G1314" s="1" t="s">
-        <v>1523</v>
+        <v>329</v>
       </c>
       <c r="H1314" s="1" t="s">
-        <v>1524</v>
+        <v>330</v>
       </c>
       <c r="I1314" s="1" t="s">
-        <v>1524</v>
+        <v>330</v>
       </c>
       <c r="J1314" s="2" t="s">
         <v>29</v>
@@ -94467,10 +94482,10 @@
         <v>31</v>
       </c>
       <c r="N1314" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O1314" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P1314" s="2" t="s">
         <v>33</v>
@@ -94505,22 +94520,22 @@
         <v>22</v>
       </c>
       <c r="D1315" s="2" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E1315" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F1315" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G1315" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H1315" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I1315" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J1315" s="2" t="s">
         <v>29</v>
@@ -94535,10 +94550,10 @@
         <v>31</v>
       </c>
       <c r="N1315" s="2" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="O1315" s="2" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="P1315" s="2" t="s">
         <v>33</v>
@@ -94573,22 +94588,22 @@
         <v>22</v>
       </c>
       <c r="D1316" s="2" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E1316" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F1316" s="2" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="G1316" s="1" t="s">
-        <v>1090</v>
+        <v>919</v>
       </c>
       <c r="H1316" s="1" t="s">
-        <v>1091</v>
+        <v>920</v>
       </c>
       <c r="I1316" s="1" t="s">
-        <v>1091</v>
+        <v>920</v>
       </c>
       <c r="J1316" s="2" t="s">
         <v>29</v>
@@ -94603,10 +94618,10 @@
         <v>31</v>
       </c>
       <c r="N1316" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O1316" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="P1316" s="2" t="s">
         <v>33</v>
@@ -94641,60 +94656,400 @@
         <v>22</v>
       </c>
       <c r="D1317" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E1317" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F1317" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1317" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1317" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1317" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1317" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1317" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1317" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1317" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="P1317" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1317" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1317" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1317" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1317" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1317" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1317" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1318" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1318" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E1318" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1318" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1318" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1318" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1318" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1318" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1318" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1318" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1318" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1318" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="O1318" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1318" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q1318" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1318" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1318" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1318" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1318" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1318" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1319" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1319" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E1319" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1319" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1319" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H1319" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I1319" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J1319" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1319" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1319" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1319" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1319" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1319" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1319" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1319" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1319" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1319" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1319" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1319" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1319" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1320" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1320" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E1320" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1320" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1320" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1320" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1320" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1320" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1320" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1320" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1320" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1320" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1320" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1320" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1320" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1320" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1320" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1320" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1320" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1320" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1321" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1321" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E1321" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1321" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1321" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H1321" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I1321" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J1321" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1321" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1321" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1321" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1321" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1321" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1321" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1321" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1322" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1322" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E1322" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1322" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G1317" s="1" t="s">
+      <c r="G1322" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="H1317" s="1" t="s">
+      <c r="H1322" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="I1317" s="1" t="s">
+      <c r="I1322" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="J1317" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1317" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1317" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1317" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1317" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1317" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1317" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1317" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1317" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1317" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1317" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1317" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1317" s="2" t="s">
+      <c r="J1322" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1322" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1322" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1322" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1322" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1322" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1322" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1322" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1322" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1322" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1322" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1322" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1322" s="2" t="s">
         <v>33</v>
       </c>
     </row>
